--- a/project/report/timing_data.xlsx
+++ b/project/report/timing_data.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A3:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D24" sqref="A20:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +776,7 @@
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="8">
         <f xml:space="preserve"> B21 * 2 / (B22 + B23)</f>
         <v>2.8344463035077068</v>
       </c>
